--- a/timesheet.xlsx
+++ b/timesheet.xlsx
@@ -5,18 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/egork/Documents/Timesheet/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/egork/workspace/jira/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{822CFD11-F7DE-9A49-A9E8-046B2448BC9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{258DB2D3-AD35-494F-A929-4664898C2FE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20240" activeTab="1" xr2:uid="{83E026A9-979A-524E-913E-69F6E55A1009}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20240" activeTab="2" xr2:uid="{83E026A9-979A-524E-913E-69F6E55A1009}"/>
   </bookViews>
   <sheets>
     <sheet name="Creative" sheetId="7" r:id="rId1"/>
     <sheet name="Other" sheetId="4" r:id="rId2"/>
-    <sheet name="Java" sheetId="9" r:id="rId3"/>
-    <sheet name="Total" sheetId="11" r:id="rId4"/>
+    <sheet name="Total" sheetId="11" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,45 +37,36 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="10">
   <si>
     <t>Jira ticket</t>
-  </si>
-  <si>
-    <t>THOR-145</t>
-  </si>
-  <si>
-    <t>Create common approach for managing github branches</t>
   </si>
   <si>
     <t>Description</t>
   </si>
   <si>
-    <t>THOR-146</t>
-  </si>
-  <si>
-    <t>Conducting 1:1 meetings with the team</t>
-  </si>
-  <si>
-    <t>THOR-227</t>
-  </si>
-  <si>
-    <t>Develop tool for task estimation</t>
-  </si>
-  <si>
-    <t>THOR-228</t>
-  </si>
-  <si>
-    <t>Create tutorial/approach for modernised components</t>
-  </si>
-  <si>
     <t>Total per tiecket</t>
   </si>
   <si>
-    <t>Create Java/Spring course</t>
+    <t>Total per ticket</t>
   </si>
   <si>
-    <t>Total per ticket</t>
+    <t>JIRA-123</t>
+  </si>
+  <si>
+    <t>JIRA-456</t>
+  </si>
+  <si>
+    <t>JIRA-789</t>
+  </si>
+  <si>
+    <t>Ticket for other category</t>
+  </si>
+  <si>
+    <t>Ticket for creative 2</t>
+  </si>
+  <si>
+    <t>Ticket for creative 1</t>
   </si>
 </sst>
 </file>
@@ -187,20 +177,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
@@ -517,10 +504,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AD4B1B9-6392-9143-9ADD-C2B3C4A2C57F}">
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView zoomScale="113" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -536,7 +523,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C1" s="3">
         <v>1</v>
@@ -628,19 +615,19 @@
       <c r="AF1" s="3">
         <v>30</v>
       </c>
-      <c r="AG1" s="13">
+      <c r="AG1" s="10">
         <v>31</v>
       </c>
       <c r="AH1" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A2" s="10" t="s">
-        <v>1</v>
+      <c r="A2" s="9" t="s">
+        <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2" s="2">
         <v>4</v>
@@ -668,35 +655,23 @@
       </c>
     </row>
     <row r="3" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A3" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>7</v>
+      <c r="A3" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="D3">
         <v>8</v>
       </c>
       <c r="AH3">
-        <f t="shared" ref="AH3:AH4" si="0">SUM(C3:AG3)</f>
+        <f t="shared" ref="AH3" si="0">SUM(C3:AG3)</f>
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A4" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="AH4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
+    <row r="5" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -708,8 +683,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9C1B221-C6CE-BA4B-B686-1403F9077DFF}">
   <dimension ref="A1:AH9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="113" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView zoomScale="113" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -725,7 +700,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C1" s="3">
         <v>1</v>
@@ -817,19 +792,19 @@
       <c r="AF1" s="3">
         <v>30</v>
       </c>
-      <c r="AG1" s="13">
+      <c r="AG1" s="10">
         <v>31</v>
       </c>
-      <c r="AH1" s="9" t="s">
-        <v>12</v>
+      <c r="AH1" s="8" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
-        <v>4</v>
+      <c r="A2" s="9" t="s">
+        <v>6</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C2" s="2">
         <v>4</v>
@@ -905,209 +880,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{192679FC-3DEC-3841-BCE5-4B30CCB75C88}">
-  <dimension ref="A1:AH9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11F8AB16-8A18-A94C-9F29-C664F8AD55B4}">
+  <dimension ref="A1:AH8"/>
   <sheetViews>
-    <sheetView zoomScale="113" workbookViewId="0">
-      <selection activeCell="O19" sqref="O19"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="12.6640625" customWidth="1"/>
-    <col min="2" max="2" width="64.83203125" customWidth="1"/>
-    <col min="3" max="33" width="3.83203125" customWidth="1"/>
-    <col min="34" max="34" width="14" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" s="3">
-        <v>1</v>
-      </c>
-      <c r="D1" s="3">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1">
-        <v>4</v>
-      </c>
-      <c r="G1" s="3">
-        <v>5</v>
-      </c>
-      <c r="H1" s="3">
-        <v>6</v>
-      </c>
-      <c r="I1" s="3">
-        <v>7</v>
-      </c>
-      <c r="J1" s="3">
-        <v>8</v>
-      </c>
-      <c r="K1" s="3">
-        <v>9</v>
-      </c>
-      <c r="L1" s="1">
-        <v>10</v>
-      </c>
-      <c r="M1" s="1">
-        <v>11</v>
-      </c>
-      <c r="N1" s="3">
-        <v>12</v>
-      </c>
-      <c r="O1" s="3">
-        <v>13</v>
-      </c>
-      <c r="P1" s="3">
-        <v>14</v>
-      </c>
-      <c r="Q1" s="3">
-        <v>15</v>
-      </c>
-      <c r="R1" s="3">
-        <v>16</v>
-      </c>
-      <c r="S1" s="1">
-        <v>17</v>
-      </c>
-      <c r="T1" s="1">
-        <v>18</v>
-      </c>
-      <c r="U1" s="3">
-        <v>19</v>
-      </c>
-      <c r="V1" s="3">
-        <v>20</v>
-      </c>
-      <c r="W1" s="3">
-        <v>21</v>
-      </c>
-      <c r="X1" s="3">
-        <v>22</v>
-      </c>
-      <c r="Y1" s="3">
-        <v>23</v>
-      </c>
-      <c r="Z1" s="1">
-        <v>24</v>
-      </c>
-      <c r="AA1" s="1">
-        <v>25</v>
-      </c>
-      <c r="AB1" s="3">
-        <v>26</v>
-      </c>
-      <c r="AC1" s="3">
-        <v>27</v>
-      </c>
-      <c r="AD1" s="3">
-        <v>28</v>
-      </c>
-      <c r="AE1" s="3">
-        <v>29</v>
-      </c>
-      <c r="AF1" s="3">
-        <v>30</v>
-      </c>
-      <c r="AG1" s="13">
-        <v>31</v>
-      </c>
-      <c r="AH1" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2"/>
-      <c r="P2" s="2"/>
-      <c r="Q2" s="2"/>
-      <c r="R2" s="2"/>
-      <c r="AH2">
-        <f>SUM(C2:AG2)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
-      <c r="O3" s="2"/>
-      <c r="P3" s="2"/>
-      <c r="Q3" s="2"/>
-      <c r="R3" s="2"/>
-    </row>
-    <row r="4" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
-      <c r="O4" s="2"/>
-      <c r="P4" s="2"/>
-      <c r="Q4" s="2"/>
-      <c r="R4" s="2"/>
-    </row>
-    <row r="9" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11F8AB16-8A18-A94C-9F29-C664F8AD55B4}">
-  <dimension ref="A1:AH9"/>
-  <sheetViews>
-    <sheetView zoomScale="113" workbookViewId="0">
-      <selection activeCell="AK24" sqref="AK24"/>
+    <sheetView tabSelected="1" zoomScale="113" workbookViewId="0">
+      <selection activeCell="P32" sqref="P32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1123,7 +900,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C1" s="3">
         <v>1</v>
@@ -1215,19 +992,19 @@
       <c r="AF1" s="3">
         <v>30</v>
       </c>
-      <c r="AG1" s="13">
+      <c r="AG1" s="10">
         <v>31</v>
       </c>
-      <c r="AH1" s="9" t="s">
-        <v>12</v>
+      <c r="AH1" s="8" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A2" s="11" t="s">
-        <v>1</v>
+      <c r="A2" s="9" t="s">
+        <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2" s="2">
         <v>4</v>
@@ -1268,11 +1045,11 @@
       </c>
     </row>
     <row r="3" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A3" s="11" t="s">
-        <v>6</v>
+      <c r="A3" s="9" t="s">
+        <v>5</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2">
@@ -1308,18 +1085,20 @@
       <c r="AF3" s="2"/>
       <c r="AG3" s="2"/>
       <c r="AH3">
-        <f t="shared" ref="AH3:AH29" si="0">SUM(C3:AG3)</f>
+        <f t="shared" ref="AH3:AH4" si="0">SUM(C3:AG3)</f>
         <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A4" s="11" t="s">
-        <v>8</v>
+      <c r="A4" s="9" t="s">
+        <v>6</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="2"/>
+        <v>7</v>
+      </c>
+      <c r="C4" s="2">
+        <v>4</v>
+      </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
@@ -1352,19 +1131,13 @@
       <c r="AG4" s="2"/>
       <c r="AH4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="2">
-        <v>4</v>
-      </c>
+      <c r="A5" s="7"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
@@ -1395,13 +1168,9 @@
       <c r="AE5" s="2"/>
       <c r="AF5" s="2"/>
       <c r="AG5" s="2"/>
-      <c r="AH5">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
     </row>
     <row r="6" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A6" s="8"/>
+      <c r="A6" s="6"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
@@ -1436,7 +1205,7 @@
       <c r="AG6" s="2"/>
     </row>
     <row r="7" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A7" s="7"/>
+      <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
@@ -1471,7 +1240,7 @@
       <c r="AG7" s="2"/>
     </row>
     <row r="8" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A8" s="2"/>
+      <c r="A8" s="6"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
@@ -1505,41 +1274,6 @@
       <c r="AF8" s="2"/>
       <c r="AG8" s="2"/>
     </row>
-    <row r="9" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A9" s="7"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
-      <c r="L9" s="2"/>
-      <c r="M9" s="2"/>
-      <c r="N9" s="2"/>
-      <c r="O9" s="2"/>
-      <c r="P9" s="2"/>
-      <c r="Q9" s="2"/>
-      <c r="R9" s="2"/>
-      <c r="S9" s="2"/>
-      <c r="T9" s="2"/>
-      <c r="U9" s="2"/>
-      <c r="V9" s="2"/>
-      <c r="W9" s="2"/>
-      <c r="X9" s="2"/>
-      <c r="Y9" s="2"/>
-      <c r="Z9" s="2"/>
-      <c r="AA9" s="2"/>
-      <c r="AB9" s="2"/>
-      <c r="AC9" s="2"/>
-      <c r="AD9" s="2"/>
-      <c r="AE9" s="2"/>
-      <c r="AF9" s="2"/>
-      <c r="AG9" s="2"/>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
